--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.012720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.012720.xlsx_with_dialog_acts.xlsx
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
